--- a/W6/Excel/SWP391-OnlineShopping-Weekly Report - W5.xlsx
+++ b/W6/Excel/SWP391-OnlineShopping-Weekly Report - W5.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -251,10 +251,13 @@
     <t>Báo cáo tiến độ làm việc nhóm trên Github (10/10/2022 - 16/10/2022)</t>
   </si>
   <si>
-    <t>Hoàn thành màn hình Recruiment ở Iteration 2</t>
-  </si>
-  <si>
-    <t>Đang cập nhật table trong database (14/10/2022 phải hoàn thành)</t>
+    <t>Vẽ Use Case diagram của từng màn hình</t>
+  </si>
+  <si>
+    <t>Viết Use Case writing của từng màn hình</t>
+  </si>
+  <si>
+    <t>Tiếp tục code các Screen trong Iteration 3</t>
   </si>
 </sst>
 </file>
@@ -436,6 +439,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>961083</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>79367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449580" y="7711440"/>
+          <a:ext cx="6897063" cy="9040487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,9 +1077,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="D21" s="21"/>
       <c r="E21" s="20" t="s">
         <v>30</v>
       </c>
@@ -1072,9 +1116,15 @@
       <c r="AL21" s="20"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="20" t="s">
         <v>31</v>
@@ -1222,7 +1272,9 @@
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C27" s="11"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4" t="s">
@@ -1309,6 +1361,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/W6/Excel/SWP391-OnlineShopping-Weekly Report - W5.xlsx
+++ b/W6/Excel/SWP391-OnlineShopping-Weekly Report - W5.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>Tiếp tục code các Screen trong Iteration 3</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Đã done cho những màn hình đã code (16/10/2022)</t>
+  </si>
+  <si>
+    <t>Đã vẽ xong cho những màn hình đã code (16/10/2022)</t>
+  </si>
+  <si>
+    <t>Đã viết cho những màn hình đã code (16/10/2022)</t>
   </si>
 </sst>
 </file>
@@ -373,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,9 +433,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,9 +1084,11 @@
         <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="20" t="s">
         <v>30</v>
       </c>
@@ -1123,9 +1134,11 @@
         <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E22" s="20" t="s">
         <v>31</v>
       </c>
